--- a/src/test/resources/Books.xlsx
+++ b/src/test/resources/Books.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\apachePOI\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C09FF43-8484-4461-A1CF-1D997557ECD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="8505"/>
+    <workbookView xWindow="-23595" yWindow="4500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,36 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Ha Minh Nam</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Ha Minh Nam:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Joshua is the lead of Java 5 new features team!</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{891177A2-F771-4181-B31A-C686D7DC097D}">
       <text>
         <r>
           <rPr>
@@ -50,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Head First Java</t>
   </si>
@@ -74,13 +104,16 @@
   </si>
   <si>
     <t>Bruce Eckel</t>
+  </si>
+  <si>
+    <t>asdfasdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +189,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -202,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,9 +275,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,6 +327,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,61 +520,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="15.75">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="C1">
         <v>79</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>79</v>
+      </c>
     </row>
-    <row r="3" spans="2:4" ht="15.75">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="C2">
         <v>36</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="2:4" ht="15.75">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="C3" s="2">
         <v>42</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" ht="15.75">
-      <c r="B5" s="1" t="s">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="C4" s="2">
         <v>35</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -508,24 +626,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/Books.xlsx
+++ b/src/test/resources/Books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\apachePOI\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C09FF43-8484-4461-A1CF-1D997557ECD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3D6425-926B-4757-B88E-ED1CB41203D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23595" yWindow="4500" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Books" sheetId="1" r:id="rId1"/>
@@ -51,36 +51,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{891177A2-F771-4181-B31A-C686D7DC097D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ha Minh Nam:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Joshua is the lead of Java 5 new features team!</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Head First Java</t>
   </si>
@@ -104,9 +80,6 @@
   </si>
   <si>
     <t>Bruce Eckel</t>
-  </si>
-  <si>
-    <t>asdfasdf</t>
   </si>
 </sst>
 </file>
@@ -521,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +506,7 @@
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,17 +516,8 @@
       <c r="C1">
         <v>79</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1">
-        <v>79</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -563,17 +527,8 @@
       <c r="C2">
         <v>36</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2">
-        <v>36</v>
-      </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -583,17 +538,8 @@
       <c r="C3" s="2">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2">
-        <v>42</v>
-      </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -602,20 +548,6 @@
       </c>
       <c r="C4" s="2">
         <v>35</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
